--- a/Testing/Documentation/Checklists/CheckList_Forms_Name.xlsx
+++ b/Testing/Documentation/Checklists/CheckList_Forms_Name.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ailon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Documentation\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EEF52-057D-438D-A0BC-D6A42E9050A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F97A5F-595A-44CF-962A-ED6BB02554C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>Чек лист для проверки поля "Имя" (Браузер Google Chrome)</t>
   </si>
@@ -308,12 +308,17 @@
     <t>Поле принимает пробел в начале имени
 BG-1</t>
   </si>
+  <si>
+    <t>Инпут (поле) "Имя" должен работать в Google Chrome и на смартфонах в версиях ОС не ниже:
+ - Android 12
+ - iOS 15"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -361,6 +366,14 @@
       <sz val="10"/>
       <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -510,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -583,18 +596,37 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,24 +641,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -863,12 +879,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="E1" s="37" t="s">
         <v>1</v>
       </c>
     </row>
@@ -882,14 +898,14 @@
       <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -946,13 +962,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="E8" s="43"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -962,7 +978,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="E10" s="43"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -972,13 +988,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="E11" s="43"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -988,13 +1004,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1004,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1014,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1024,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1040,21 +1056,21 @@
         <v>8</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="E19" s="43"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="E21" s="43"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -1064,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -1086,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1094,14 +1110,14 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="E25" s="43"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="E26" s="9" t="s">
         <v>26</v>
       </c>
@@ -1126,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1138,21 +1154,21 @@
         <v>8</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="E29" s="43"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="E30" s="43"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
@@ -1162,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="E32" s="43"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -1172,21 +1188,21 @@
         <v>8</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="E33" s="43"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="E34" s="43"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -1196,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="E36" s="43"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1206,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="E37" s="43"/>
+      <c r="E37" s="39"/>
     </row>
     <row r="38" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -1215,10 +1231,12 @@
       <c r="B38" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="47" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1227,11 +1245,11 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1270,8 +1288,8 @@
       <c r="A45" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
     </row>
     <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1339,7 +1357,7 @@
       <c r="B54" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="28" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1377,11 +1395,11 @@
       <c r="C59" s="18"/>
     </row>
     <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
     </row>
     <row r="61" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
@@ -1390,7 +1408,7 @@
       <c r="B61" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="29" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1435,18 +1453,18 @@
       <c r="C66" s="19"/>
     </row>
     <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="35"/>
     </row>
     <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
@@ -1482,7 +1500,7 @@
       <c r="B72" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1501,11 +1519,11 @@
       <c r="C74" s="19"/>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -1531,11 +1549,11 @@
       <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="30"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="35"/>
     </row>
     <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
@@ -1553,7 +1571,7 @@
       <c r="B81" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="28" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1567,11 +1585,11 @@
       <c r="C82" s="21"/>
     </row>
     <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="35"/>
     </row>
     <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
@@ -1593,6 +1611,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A26:C26"/>
@@ -1602,15 +1629,6 @@
     <mergeCell ref="E7:E22"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E28:E37"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A68:C68"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B76:B77 B4:B5 B7:B8 B10:B11 B13 B15:B17 B19 B22:B24 B27:B29 B32:B33 B36:B38 B41:B43 B85:B86 B50 B52 B46:B48 B56 B58 B69:B73 B54 B80:B82 B61:B65" xr:uid="{00000000-0002-0000-0000-000000000000}">
